--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rln3-Rxfp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rln3-Rxfp2.xlsx
@@ -555,10 +555,10 @@
         <v>0.14336</v>
       </c>
       <c r="O2">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="P2">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="Q2">
         <v>0.05047302599111111</v>
@@ -567,10 +567,10 @@
         <v>0.4542572339199999</v>
       </c>
       <c r="S2">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="T2">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,34 +605,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01780533333333333</v>
+        <v>0.01343</v>
       </c>
       <c r="N3">
-        <v>0.053416</v>
+        <v>0.04029</v>
       </c>
       <c r="O3">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="P3">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="Q3">
-        <v>0.01880627201688889</v>
+        <v>0.01418497640333333</v>
       </c>
       <c r="R3">
-        <v>0.169256448152</v>
+        <v>0.12766478763</v>
       </c>
       <c r="S3">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="T3">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
     </row>
   </sheetData>
